--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_end.xlsx
@@ -160,7 +160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Huh?  You’re…",values="1")]
+    <t xml:space="preserve">[Decision(options="Huh?  You're...",values="1")]
 </t>
   </si>
   <si>
